--- a/codegen/__out__/nest/src/menu/menu.xlsx
+++ b/codegen/__out__/nest/src/menu/menu.xlsx
@@ -69,7 +69,7 @@
     <t xml:space="preserve">&lt;%=model.route_query%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%~model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
